--- a/TRANSPOSED/ISA (version 2).xlsx
+++ b/TRANSPOSED/ISA (version 2).xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CCSS-Processor-Design\TRANSPOSED\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CCSS-Processor-Design\NORMAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB872250-55E9-4A8D-A888-39262CCADDD2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AFB2235-E69F-4A50-AA9F-701C41436A8B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="2" xr2:uid="{F9FC4EB7-60E8-4B7B-A0E0-BCAB8887FB56}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{F9FC4EB7-60E8-4B7B-A0E0-BCAB8887FB56}"/>
   </bookViews>
   <sheets>
     <sheet name="ISA" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="178">
   <si>
     <t>OPCODE</t>
   </si>
@@ -64,12 +64,6 @@
     <t>NOP</t>
   </si>
   <si>
-    <t>LOADAC</t>
-  </si>
-  <si>
-    <t>STOREC</t>
-  </si>
-  <si>
     <t>AC &lt;- M[a]</t>
   </si>
   <si>
@@ -127,42 +121,12 @@
     <t>FETCH_1</t>
   </si>
   <si>
-    <t>LOADAC_1</t>
-  </si>
-  <si>
-    <t>LOADAC_2</t>
-  </si>
-  <si>
-    <t>LOADAC_3</t>
-  </si>
-  <si>
-    <t>LOADAC_4</t>
-  </si>
-  <si>
     <t>DR &lt;- M</t>
   </si>
   <si>
-    <t>STOREC_1</t>
-  </si>
-  <si>
-    <t>STOREC_2</t>
-  </si>
-  <si>
-    <t>STOREC_3</t>
-  </si>
-  <si>
     <t>DR &lt;- M , PC &lt;- PC + 1</t>
   </si>
   <si>
-    <t>STOREC_4</t>
-  </si>
-  <si>
-    <t>STOREC_5</t>
-  </si>
-  <si>
-    <t>STOREC_6</t>
-  </si>
-  <si>
     <t>XOR_1</t>
   </si>
   <si>
@@ -184,12 +148,6 @@
     <t>no operation</t>
   </si>
   <si>
-    <t>LOADAC_5</t>
-  </si>
-  <si>
-    <t>LOADAC_6</t>
-  </si>
-  <si>
     <t>JUMPZY_1</t>
   </si>
   <si>
@@ -211,9 +169,6 @@
     <t>PC &lt;- PC + 1</t>
   </si>
   <si>
-    <t>STOREC_7</t>
-  </si>
-  <si>
     <t>MULV</t>
   </si>
   <si>
@@ -568,10 +523,52 @@
     <t>Accumilator for ALU operations</t>
   </si>
   <si>
-    <t>STA,STC,STC,A,B</t>
-  </si>
-  <si>
-    <t>Stores stack pointers and offset addresses</t>
+    <t xml:space="preserve">R </t>
+  </si>
+  <si>
+    <t>LDAC</t>
+  </si>
+  <si>
+    <t>STAC</t>
+  </si>
+  <si>
+    <t>LDAC_1</t>
+  </si>
+  <si>
+    <t>LDAC_2</t>
+  </si>
+  <si>
+    <t>LDAC_3</t>
+  </si>
+  <si>
+    <t>LDAC_4</t>
+  </si>
+  <si>
+    <t>LDAC_5</t>
+  </si>
+  <si>
+    <t>LDAC_6</t>
+  </si>
+  <si>
+    <t>STAC_1</t>
+  </si>
+  <si>
+    <t>STAC_2</t>
+  </si>
+  <si>
+    <t>STAC_3</t>
+  </si>
+  <si>
+    <t>STAC_4</t>
+  </si>
+  <si>
+    <t>STAC_5</t>
+  </si>
+  <si>
+    <t>STAC_6</t>
+  </si>
+  <si>
+    <t>STAC_7</t>
   </si>
 </sst>
 </file>
@@ -1336,7 +1333,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1350,13 +1347,13 @@
     <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>1</v>
@@ -1368,7 +1365,7 @@
         <v>8</v>
       </c>
       <c r="C2" s="42" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>2</v>
@@ -1380,16 +1377,16 @@
     <row r="3" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="61"/>
       <c r="B3" s="37" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C3" s="43" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="D3" s="35" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="E3" s="36" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1397,76 +1394,76 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C4" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="D4" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="44" t="s">
-        <v>136</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>11</v>
-      </c>
       <c r="E4" s="13" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="61"/>
       <c r="B5" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C5" s="44" t="s">
+        <v>120</v>
+      </c>
+      <c r="D5" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="44" t="s">
-        <v>135</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>12</v>
-      </c>
       <c r="E5" s="13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="61"/>
       <c r="B6" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C6" s="44" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:5" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="61"/>
       <c r="B7" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C7" s="44" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:5" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="61"/>
       <c r="B8" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C8" s="44" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:5" s="1" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1475,13 +1472,13 @@
         <v>5</v>
       </c>
       <c r="C9" s="44" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="69.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1489,16 +1486,16 @@
         <v>4</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C10" s="45" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1509,88 +1506,88 @@
         <v>7</v>
       </c>
       <c r="C11" s="45" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="D11" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E11" s="8" t="s">
         <v>113</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="12" spans="1:5" s="1" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="63"/>
       <c r="B12" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C12" s="46" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="63"/>
       <c r="B13" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C13" s="46" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="63"/>
       <c r="B14" s="20" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C14" s="46" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="E14" s="39" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="63"/>
       <c r="B15" s="20" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="C15" s="46" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="E15" s="39" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="32.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="64"/>
       <c r="B16" s="30" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="C16" s="47" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="D16" s="41" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="E16" s="40" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -1609,8 +1606,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D43D6E7A-3E49-43BB-8E17-C3E4A8489588}">
   <dimension ref="A1:C74"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1625,10 +1622,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -1639,7 +1636,7 @@
         <v>8</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:3" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1649,31 +1646,31 @@
     </row>
     <row r="4" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="25" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="20"/>
       <c r="B5" s="21" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="20"/>
       <c r="B6" s="21" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:3" s="1" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1683,58 +1680,58 @@
     </row>
     <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="25" t="s">
-        <v>9</v>
+        <v>163</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>30</v>
+        <v>165</v>
       </c>
       <c r="C8" s="27" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="20"/>
       <c r="B9" s="21" t="s">
-        <v>31</v>
+        <v>166</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="20"/>
       <c r="B10" s="21" t="s">
-        <v>32</v>
+        <v>167</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="20"/>
       <c r="B11" s="21" t="s">
-        <v>33</v>
+        <v>168</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:3" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="20"/>
       <c r="B12" s="21" t="s">
-        <v>49</v>
+        <v>169</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:3" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="20"/>
       <c r="B13" s="21" t="s">
-        <v>50</v>
+        <v>170</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:3" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1744,67 +1741,67 @@
     </row>
     <row r="15" spans="1:3" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="25" t="s">
-        <v>10</v>
+        <v>164</v>
       </c>
       <c r="B15" s="26" t="s">
-        <v>35</v>
+        <v>171</v>
       </c>
       <c r="C15" s="27" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:3" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="20"/>
       <c r="B16" s="21" t="s">
-        <v>36</v>
+        <v>172</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:3" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="20"/>
       <c r="B17" s="21" t="s">
-        <v>37</v>
+        <v>173</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:3" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="20"/>
       <c r="B18" s="21" t="s">
-        <v>39</v>
+        <v>174</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:3" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="20"/>
       <c r="B19" s="21" t="s">
-        <v>40</v>
+        <v>175</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20" spans="1:3" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="20"/>
       <c r="B20" s="21" t="s">
-        <v>41</v>
+        <v>176</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21" spans="1:3" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="20"/>
       <c r="B21" s="21" t="s">
-        <v>58</v>
+        <v>177</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22" spans="1:3" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1814,13 +1811,13 @@
     </row>
     <row r="23" spans="1:3" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="25" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="B23" s="26" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="C23" s="27" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:3" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1833,37 +1830,37 @@
         <v>5</v>
       </c>
       <c r="B25" s="26" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="C25" s="27" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="20"/>
       <c r="B26" s="21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C26" s="22" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
     </row>
     <row r="27" spans="1:3" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="20"/>
       <c r="B27" s="21" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="C27" s="22" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28" spans="1:3" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="20"/>
       <c r="B28" s="21" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="C28" s="22" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
     </row>
     <row r="29" spans="1:3" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1873,58 +1870,58 @@
     </row>
     <row r="30" spans="1:3" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="25" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B30" s="26" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="C30" s="27" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:3" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="20"/>
       <c r="B31" s="21" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="C31" s="22" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
     </row>
     <row r="32" spans="1:3" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="20"/>
       <c r="B32" s="21" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="C32" s="22" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33" spans="1:3" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="20"/>
       <c r="B33" s="21" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="C33" s="22" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
     </row>
     <row r="34" spans="1:3" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="20"/>
       <c r="B34" s="21" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="C34" s="22" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
     </row>
     <row r="35" spans="1:3" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="20"/>
       <c r="B35" s="21" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="C35" s="22" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
     </row>
     <row r="36" spans="1:3" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1934,20 +1931,20 @@
     </row>
     <row r="37" spans="1:3" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="25" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="B37" s="26" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="C37" s="27" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="38" spans="1:3" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="20"/>
       <c r="B38" s="21"/>
       <c r="C38" s="22" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
     </row>
     <row r="39" spans="1:3" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1957,49 +1954,49 @@
     </row>
     <row r="40" spans="1:3" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="25" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="B40" s="26" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="C40" s="27" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="41" spans="1:3" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="20"/>
       <c r="B41" s="21" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="C41" s="22" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
     </row>
     <row r="42" spans="1:3" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="20"/>
       <c r="B42" s="21" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="C42" s="22" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="43" spans="1:3" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="20"/>
       <c r="B43" s="21" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="C43" s="22" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
     </row>
     <row r="44" spans="1:3" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="20"/>
       <c r="B44" s="21" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="C44" s="22" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
     </row>
     <row r="45" spans="1:3" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2009,29 +2006,29 @@
     </row>
     <row r="46" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="25" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B46" s="26" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="C46" s="27" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="47" spans="1:3" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="20"/>
       <c r="B47" s="21" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="C47" s="22" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
     </row>
     <row r="48" spans="1:3" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="20"/>
       <c r="B48" s="21"/>
       <c r="C48" s="22" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
     </row>
     <row r="49" spans="1:3" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2044,28 +2041,28 @@
         <v>7</v>
       </c>
       <c r="B50" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="C50" s="27" t="s">
         <v>67</v>
-      </c>
-      <c r="C50" s="27" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="51" spans="1:3" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="20"/>
       <c r="B51" s="21" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="C51" s="22" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
     </row>
     <row r="52" spans="1:3" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="20"/>
       <c r="B52" s="21" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="C52" s="22" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
     </row>
     <row r="53" spans="1:3" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2075,31 +2072,31 @@
     </row>
     <row r="54" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="25" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B54" s="26" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="C54" s="27" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
     </row>
     <row r="55" spans="1:3" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="20"/>
       <c r="B55" s="23" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="C55" s="22" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
     </row>
     <row r="56" spans="1:3" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="20"/>
       <c r="B56" s="23" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="C56" s="22" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
     </row>
     <row r="57" spans="1:3" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2109,31 +2106,31 @@
     </row>
     <row r="58" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="25" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B58" s="26" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="C58" s="27" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
     </row>
     <row r="59" spans="1:3" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="20"/>
       <c r="B59" s="23" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="C59" s="22" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
     </row>
     <row r="60" spans="1:3" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="20"/>
       <c r="B60" s="23" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="C60" s="22" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
     </row>
     <row r="61" spans="1:3" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2143,31 +2140,31 @@
     </row>
     <row r="62" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="25" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B62" s="33" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="C62" s="29" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" s="20"/>
       <c r="B63" s="34" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="C63" s="14" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" s="20"/>
       <c r="B64" s="34" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="C64" s="48" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
     </row>
     <row r="65" spans="1:3" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2177,31 +2174,31 @@
     </row>
     <row r="66" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="25" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B66" s="33" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="C66" s="29" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" s="20"/>
       <c r="B67" s="34" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="C67" s="14" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" s="20"/>
       <c r="B68" s="34" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="C68" s="48" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
     </row>
     <row r="69" spans="1:3" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2211,29 +2208,29 @@
     </row>
     <row r="70" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70" s="25" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B70" s="26" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="C70" s="27" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="71" spans="1:3" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A71" s="20"/>
       <c r="B71" s="21" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="C71" s="22" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
     </row>
     <row r="72" spans="1:3" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72" s="20"/>
       <c r="B72" s="21"/>
       <c r="C72" s="22" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2256,8 +2253,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51276C7B-AB3B-47C6-8AF2-E7F8CBB216C3}">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2271,101 +2268,101 @@
     <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="50"/>
       <c r="B1" s="57" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="C1" s="58" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="D1" s="59" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="65" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="B2" s="51" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="C2" s="52">
         <v>16</v>
       </c>
       <c r="D2" s="51" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
       <c r="B3" s="51" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="C3" s="52">
         <v>8</v>
       </c>
       <c r="D3" s="51" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
       <c r="B4" s="51" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="C4" s="52">
         <v>16</v>
       </c>
       <c r="D4" s="51" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
       <c r="B5" s="51" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="C5" s="52">
         <v>8</v>
       </c>
       <c r="D5" s="51" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
       <c r="B6" s="51" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="C6" s="52">
         <v>8</v>
       </c>
       <c r="D6" s="51" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
       <c r="B7" s="51" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="C7" s="52">
         <v>1</v>
       </c>
       <c r="D7" s="51" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="65" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="B8" s="66" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="C8" s="67">
         <v>8</v>
       </c>
       <c r="D8" s="54" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -2373,7 +2370,7 @@
       <c r="B9" s="66"/>
       <c r="C9" s="67"/>
       <c r="D9" s="55" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -2381,7 +2378,7 @@
       <c r="B10" s="66"/>
       <c r="C10" s="67"/>
       <c r="D10" s="55" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -2389,67 +2386,67 @@
       <c r="B11" s="66"/>
       <c r="C11" s="67"/>
       <c r="D11" s="56" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="65"/>
       <c r="B12" s="53" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="C12" s="52">
         <v>8</v>
       </c>
       <c r="D12" s="51" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="65"/>
       <c r="B13" s="53" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="C13" s="52">
         <v>8</v>
       </c>
       <c r="D13" s="51" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="65"/>
       <c r="B14" s="53" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="C14" s="52">
         <v>8</v>
       </c>
       <c r="D14" s="51" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="65"/>
       <c r="B15" s="53" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="C15" s="52">
         <v>16</v>
       </c>
       <c r="D15" s="51" t="s">
-        <v>178</v>
+        <v>145</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="65"/>
       <c r="B16" s="51" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="C16" s="52">
         <v>16</v>
       </c>
       <c r="D16" s="51" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>

--- a/TRANSPOSED/ISA (version 2).xlsx
+++ b/TRANSPOSED/ISA (version 2).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CCSS-Processor-Design\NORMAL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sachi\Documents\GitHub\CCSS-Processor-Design\TRANSPOSED\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AFB2235-E69F-4A50-AA9F-701C41436A8B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C35398E9-BA32-4A4E-800F-70665B60508B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{F9FC4EB7-60E8-4B7B-A0E0-BCAB8887FB56}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{F9FC4EB7-60E8-4B7B-A0E0-BCAB8887FB56}"/>
   </bookViews>
   <sheets>
     <sheet name="ISA" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="179">
   <si>
     <t>OPCODE</t>
   </si>
@@ -64,6 +64,12 @@
     <t>NOP</t>
   </si>
   <si>
+    <t>LOADAC</t>
+  </si>
+  <si>
+    <t>STOREC</t>
+  </si>
+  <si>
     <t>AC &lt;- M[a]</t>
   </si>
   <si>
@@ -121,12 +127,42 @@
     <t>FETCH_1</t>
   </si>
   <si>
+    <t>LOADAC_1</t>
+  </si>
+  <si>
+    <t>LOADAC_2</t>
+  </si>
+  <si>
+    <t>LOADAC_3</t>
+  </si>
+  <si>
+    <t>LOADAC_4</t>
+  </si>
+  <si>
     <t>DR &lt;- M</t>
   </si>
   <si>
+    <t>STOREC_1</t>
+  </si>
+  <si>
+    <t>STOREC_2</t>
+  </si>
+  <si>
+    <t>STOREC_3</t>
+  </si>
+  <si>
     <t>DR &lt;- M , PC &lt;- PC + 1</t>
   </si>
   <si>
+    <t>STOREC_4</t>
+  </si>
+  <si>
+    <t>STOREC_5</t>
+  </si>
+  <si>
+    <t>STOREC_6</t>
+  </si>
+  <si>
     <t>XOR_1</t>
   </si>
   <si>
@@ -148,6 +184,12 @@
     <t>no operation</t>
   </si>
   <si>
+    <t>LOADAC_5</t>
+  </si>
+  <si>
+    <t>LOADAC_6</t>
+  </si>
+  <si>
     <t>JUMPZY_1</t>
   </si>
   <si>
@@ -169,6 +211,9 @@
     <t>PC &lt;- PC + 1</t>
   </si>
   <si>
+    <t>STOREC_7</t>
+  </si>
+  <si>
     <t>MULV</t>
   </si>
   <si>
@@ -385,51 +430,6 @@
     <t>Add any given constant value a to AC.</t>
   </si>
   <si>
-    <t>0X00</t>
-  </si>
-  <si>
-    <t>0x06</t>
-  </si>
-  <si>
-    <t>0x07 a</t>
-  </si>
-  <si>
-    <t>0x04 000xxxxx</t>
-  </si>
-  <si>
-    <t>0x03 a</t>
-  </si>
-  <si>
-    <t>0x02 a</t>
-  </si>
-  <si>
-    <t>0x05 000xxxxx</t>
-  </si>
-  <si>
-    <t>0X01 0000xxxx</t>
-  </si>
-  <si>
-    <t>0x08 a</t>
-  </si>
-  <si>
-    <t>0x09 000xxxxx</t>
-  </si>
-  <si>
-    <t>0x10 000xxxxx</t>
-  </si>
-  <si>
-    <t>0x11 000xxxxx</t>
-  </si>
-  <si>
-    <t>0x12 000xxxxx</t>
-  </si>
-  <si>
-    <t>0x13 xxxxxxxx</t>
-  </si>
-  <si>
-    <t>0x14 xxxxxxxx</t>
-  </si>
-  <si>
     <t xml:space="preserve">A bus &lt;- DRTR </t>
   </si>
   <si>
@@ -523,52 +523,55 @@
     <t>Accumilator for ALU operations</t>
   </si>
   <si>
-    <t xml:space="preserve">R </t>
-  </si>
-  <si>
-    <t>LDAC</t>
-  </si>
-  <si>
-    <t>STAC</t>
-  </si>
-  <si>
-    <t>LDAC_1</t>
-  </si>
-  <si>
-    <t>LDAC_2</t>
-  </si>
-  <si>
-    <t>LDAC_3</t>
-  </si>
-  <si>
-    <t>LDAC_4</t>
-  </si>
-  <si>
-    <t>LDAC_5</t>
-  </si>
-  <si>
-    <t>LDAC_6</t>
-  </si>
-  <si>
-    <t>STAC_1</t>
-  </si>
-  <si>
-    <t>STAC_2</t>
-  </si>
-  <si>
-    <t>STAC_3</t>
-  </si>
-  <si>
-    <t>STAC_4</t>
-  </si>
-  <si>
-    <t>STAC_5</t>
-  </si>
-  <si>
-    <t>STAC_6</t>
-  </si>
-  <si>
-    <t>STAC_7</t>
+    <t>STA,STC,STC,A,B</t>
+  </si>
+  <si>
+    <t>Stores stack pointers and offset addresses</t>
+  </si>
+  <si>
+    <t>00000000</t>
+  </si>
+  <si>
+    <t>00000001 0000xxxx</t>
+  </si>
+  <si>
+    <t>00000010 a</t>
+  </si>
+  <si>
+    <t>00000011 a</t>
+  </si>
+  <si>
+    <t>00000100 000xxxxx</t>
+  </si>
+  <si>
+    <t>00000101 000xxxxx</t>
+  </si>
+  <si>
+    <t>000000110</t>
+  </si>
+  <si>
+    <t>00000111 a</t>
+  </si>
+  <si>
+    <t>00001000 a</t>
+  </si>
+  <si>
+    <t>00001001 000xxxxx</t>
+  </si>
+  <si>
+    <t>00001010 000xxxxx</t>
+  </si>
+  <si>
+    <t>00001011 000xxxxx</t>
+  </si>
+  <si>
+    <t>00001100 000xxxxx</t>
+  </si>
+  <si>
+    <t>00001101 xxxxxxxx</t>
+  </si>
+  <si>
+    <t>00001110 xxxxxxxx</t>
   </si>
 </sst>
 </file>
@@ -1332,40 +1335,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86182E25-EC7A-483E-BB54-73CF54E3BA6D}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="17.42578125" customWidth="1"/>
-    <col min="3" max="3" width="23.140625" customWidth="1"/>
-    <col min="4" max="4" width="82.28515625" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" customWidth="1"/>
+    <col min="3" max="3" width="23.109375" customWidth="1"/>
+    <col min="4" max="4" width="82.33203125" customWidth="1"/>
     <col min="5" max="5" width="102" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="61"/>
       <c r="B2" s="9" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="42" t="s">
-        <v>116</v>
+        <v>164</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>2</v>
@@ -1374,131 +1377,131 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="61"/>
       <c r="B3" s="37" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C3" s="43" t="s">
-        <v>123</v>
+        <v>165</v>
       </c>
       <c r="D3" s="35" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="E3" s="36" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="60" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>163</v>
+        <v>9</v>
       </c>
       <c r="C4" s="44" t="s">
-        <v>121</v>
+        <v>166</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="61"/>
       <c r="B5" s="2" t="s">
-        <v>164</v>
+        <v>10</v>
       </c>
       <c r="C5" s="44" t="s">
-        <v>120</v>
+        <v>167</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="61"/>
       <c r="B6" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C6" s="44" t="s">
-        <v>119</v>
+        <v>168</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="61"/>
       <c r="B7" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C7" s="44" t="s">
-        <v>122</v>
+        <v>169</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="61"/>
       <c r="B8" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C8" s="44" t="s">
-        <v>117</v>
+        <v>170</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" s="1" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" s="1" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="18"/>
       <c r="B9" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="44" t="s">
-        <v>118</v>
+        <v>171</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="69.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="69.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="15" t="s">
         <v>4</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C10" s="45" t="s">
-        <v>124</v>
+        <v>172</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="62" t="s">
         <v>6</v>
       </c>
@@ -1506,88 +1509,88 @@
         <v>7</v>
       </c>
       <c r="C11" s="45" t="s">
-        <v>125</v>
+        <v>173</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" s="1" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" s="1" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="63"/>
       <c r="B12" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C12" s="46" t="s">
-        <v>126</v>
+        <v>174</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="63"/>
       <c r="B13" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C13" s="46" t="s">
-        <v>127</v>
+        <v>175</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="63"/>
       <c r="B14" s="20" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C14" s="46" t="s">
-        <v>128</v>
+        <v>176</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="E14" s="39" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="63"/>
       <c r="B15" s="20" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="C15" s="46" t="s">
-        <v>129</v>
+        <v>177</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="E15" s="39" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="32.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="32.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="64"/>
       <c r="B16" s="30" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="C16" s="47" t="s">
+        <v>178</v>
+      </c>
+      <c r="D16" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="E16" s="40" t="s">
         <v>130</v>
-      </c>
-      <c r="D16" s="41" t="s">
-        <v>110</v>
-      </c>
-      <c r="E16" s="40" t="s">
-        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -1606,29 +1609,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D43D6E7A-3E49-43BB-8E17-C3E4A8489588}">
   <dimension ref="A1:C74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.140625" customWidth="1"/>
-    <col min="2" max="2" width="32.7109375" customWidth="1"/>
-    <col min="3" max="3" width="39.85546875" customWidth="1"/>
+    <col min="1" max="1" width="24.109375" customWidth="1"/>
+    <col min="2" max="2" width="32.6640625" customWidth="1"/>
+    <col min="3" max="3" width="39.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
         <v>8</v>
       </c>
@@ -1636,609 +1639,609 @@
         <v>8</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" s="1" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="20"/>
       <c r="B3" s="21"/>
       <c r="C3" s="22"/>
     </row>
-    <row r="4" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="25" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="20"/>
       <c r="B5" s="21" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="20"/>
       <c r="B6" s="21" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" s="1" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" s="1" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="20"/>
       <c r="B7" s="21"/>
       <c r="C7" s="22"/>
     </row>
-    <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="25" t="s">
-        <v>163</v>
+        <v>9</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>165</v>
+        <v>30</v>
       </c>
       <c r="C8" s="27" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="20"/>
       <c r="B9" s="21" t="s">
-        <v>166</v>
+        <v>31</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="20"/>
       <c r="B10" s="21" t="s">
-        <v>167</v>
+        <v>32</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="20"/>
       <c r="B11" s="21" t="s">
-        <v>168</v>
+        <v>33</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="20"/>
       <c r="B12" s="21" t="s">
-        <v>169</v>
+        <v>49</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="20"/>
       <c r="B13" s="21" t="s">
-        <v>170</v>
+        <v>50</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" s="1" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="20"/>
       <c r="B14" s="21"/>
       <c r="C14" s="22"/>
     </row>
-    <row r="15" spans="1:3" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="55.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="25" t="s">
-        <v>164</v>
+        <v>10</v>
       </c>
       <c r="B15" s="26" t="s">
-        <v>171</v>
+        <v>35</v>
       </c>
       <c r="C15" s="27" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="20"/>
       <c r="B16" s="21" t="s">
-        <v>172</v>
+        <v>36</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="20"/>
       <c r="B17" s="21" t="s">
-        <v>173</v>
+        <v>37</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="20"/>
       <c r="B18" s="21" t="s">
-        <v>174</v>
+        <v>39</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="20"/>
       <c r="B19" s="21" t="s">
-        <v>175</v>
+        <v>40</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="20"/>
       <c r="B20" s="21" t="s">
-        <v>176</v>
+        <v>41</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="20"/>
       <c r="B21" s="21" t="s">
-        <v>177</v>
+        <v>58</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" s="1" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="20"/>
       <c r="B22" s="21"/>
       <c r="C22" s="22"/>
     </row>
-    <row r="23" spans="1:3" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="25" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="B23" s="26" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="C23" s="27" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" s="1" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="20"/>
       <c r="B24" s="21"/>
       <c r="C24" s="22"/>
     </row>
-    <row r="25" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="25" t="s">
         <v>5</v>
       </c>
       <c r="B25" s="26" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="C25" s="27" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="20"/>
       <c r="B26" s="21" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C26" s="22" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="20"/>
       <c r="B27" s="21" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="C27" s="22" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="20"/>
       <c r="B28" s="21" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="C28" s="22" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" s="1" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="20"/>
       <c r="B29" s="21"/>
       <c r="C29" s="22"/>
     </row>
-    <row r="30" spans="1:3" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="25" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B30" s="26" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="C30" s="27" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="20"/>
       <c r="B31" s="21" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="C31" s="22" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="20"/>
       <c r="B32" s="21" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="C32" s="22" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="20"/>
       <c r="B33" s="21" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="C33" s="22" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="20"/>
       <c r="B34" s="21" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="C34" s="22" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="20"/>
       <c r="B35" s="21" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="C35" s="22" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" s="1" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="20"/>
       <c r="B36" s="21"/>
       <c r="C36" s="22"/>
     </row>
-    <row r="37" spans="1:3" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="25" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="B37" s="26" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="C37" s="27" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="20"/>
       <c r="B38" s="21"/>
       <c r="C38" s="22" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" s="1" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="20"/>
       <c r="B39" s="21"/>
       <c r="C39" s="22"/>
     </row>
-    <row r="40" spans="1:3" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="25" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="B40" s="26" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="C40" s="27" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="20"/>
       <c r="B41" s="21" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="C41" s="22" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="20"/>
       <c r="B42" s="21" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="C42" s="22" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="20"/>
       <c r="B43" s="21" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="C43" s="22" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="44" spans="1:3" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="20"/>
       <c r="B44" s="21" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="C44" s="22" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" s="1" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="20"/>
       <c r="B45" s="21"/>
       <c r="C45" s="22"/>
     </row>
-    <row r="46" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="25" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B46" s="26" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="C46" s="27" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" s="20"/>
       <c r="B47" s="21" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="C47" s="22" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="20"/>
       <c r="B48" s="21"/>
       <c r="C48" s="22" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" s="1" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="20"/>
       <c r="B49" s="21"/>
       <c r="C49" s="22"/>
     </row>
-    <row r="50" spans="1:3" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="25" t="s">
         <v>7</v>
       </c>
       <c r="B50" s="26" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="C50" s="27" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A51" s="20"/>
       <c r="B51" s="21" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="C51" s="22" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" s="20"/>
       <c r="B52" s="21" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="C52" s="22" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" s="1" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="20"/>
       <c r="B53" s="21"/>
       <c r="C53" s="22"/>
     </row>
-    <row r="54" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A54" s="25" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B54" s="26" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="C54" s="27" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A55" s="20"/>
       <c r="B55" s="23" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="C55" s="22" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A56" s="20"/>
       <c r="B56" s="23" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="C56" s="22" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" s="1" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="20"/>
       <c r="B57" s="23"/>
       <c r="C57" s="22"/>
     </row>
-    <row r="58" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A58" s="25" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B58" s="26" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="C58" s="27" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A59" s="20"/>
       <c r="B59" s="23" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="C59" s="22" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="20"/>
       <c r="B60" s="23" t="s">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="C60" s="22" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="20"/>
       <c r="B61" s="23"/>
       <c r="C61" s="22"/>
     </row>
-    <row r="62" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A62" s="25" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B62" s="33" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="C62" s="29" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A63" s="20"/>
       <c r="B63" s="34" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="C63" s="14" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A64" s="20"/>
       <c r="B64" s="34" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="C64" s="48" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" s="1" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="20"/>
       <c r="B65" s="28"/>
       <c r="C65" s="48"/>
     </row>
-    <row r="66" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A66" s="25" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B66" s="33" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="C66" s="29" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A67" s="20"/>
       <c r="B67" s="34" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="C67" s="14" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A68" s="20"/>
       <c r="B68" s="34" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="C68" s="48" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" s="1" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="20"/>
       <c r="B69" s="28"/>
       <c r="C69" s="49"/>
     </row>
-    <row r="70" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A70" s="25" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B70" s="26" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="C70" s="27" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A71" s="20"/>
       <c r="B71" s="21" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="C71" s="22" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A72" s="20"/>
       <c r="B72" s="21"/>
       <c r="C72" s="22" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="30"/>
       <c r="B73" s="31"/>
       <c r="C73" s="32"/>
     </row>
-    <row r="74" spans="1:3" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A74" s="38"/>
       <c r="B74" s="23"/>
       <c r="C74" s="24"/>
@@ -2254,18 +2257,18 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" customWidth="1"/>
-    <col min="4" max="4" width="61.7109375" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.88671875" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" customWidth="1"/>
+    <col min="4" max="4" width="61.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="50"/>
       <c r="B1" s="57" t="s">
         <v>132</v>
@@ -2277,7 +2280,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="65" t="s">
         <v>135</v>
       </c>
@@ -2291,7 +2294,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="65"/>
       <c r="B3" s="51" t="s">
         <v>138</v>
@@ -2303,7 +2306,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="65"/>
       <c r="B4" s="51" t="s">
         <v>140</v>
@@ -2315,7 +2318,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="65"/>
       <c r="B5" s="51" t="s">
         <v>142</v>
@@ -2327,7 +2330,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="65"/>
       <c r="B6" s="51" t="s">
         <v>144</v>
@@ -2339,7 +2342,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="65"/>
       <c r="B7" s="51" t="s">
         <v>146</v>
@@ -2351,7 +2354,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="65" t="s">
         <v>148</v>
       </c>
@@ -2365,7 +2368,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="65"/>
       <c r="B9" s="66"/>
       <c r="C9" s="67"/>
@@ -2373,7 +2376,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="65"/>
       <c r="B10" s="66"/>
       <c r="C10" s="67"/>
@@ -2381,7 +2384,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="65"/>
       <c r="B11" s="66"/>
       <c r="C11" s="67"/>
@@ -2389,7 +2392,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="65"/>
       <c r="B12" s="53" t="s">
         <v>154</v>
@@ -2401,7 +2404,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="65"/>
       <c r="B13" s="53" t="s">
         <v>156</v>
@@ -2413,7 +2416,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="65"/>
       <c r="B14" s="53" t="s">
         <v>158</v>
@@ -2425,7 +2428,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="65"/>
       <c r="B15" s="53" t="s">
         <v>162</v>
@@ -2434,10 +2437,10 @@
         <v>16</v>
       </c>
       <c r="D15" s="51" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="65"/>
       <c r="B16" s="51" t="s">
         <v>160</v>

--- a/TRANSPOSED/ISA (version 2).xlsx
+++ b/TRANSPOSED/ISA (version 2).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sachi\Documents\GitHub\CCSS-Processor-Design\TRANSPOSED\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C35398E9-BA32-4A4E-800F-70665B60508B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA77757C-2BD5-4B93-BC9E-D72BD2052AE0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{F9FC4EB7-60E8-4B7B-A0E0-BCAB8887FB56}"/>
+    <workbookView xWindow="0" yWindow="1908" windowWidth="17280" windowHeight="10596" activeTab="2" xr2:uid="{F9FC4EB7-60E8-4B7B-A0E0-BCAB8887FB56}"/>
   </bookViews>
   <sheets>
     <sheet name="ISA" sheetId="1" r:id="rId1"/>
@@ -64,12 +64,6 @@
     <t>NOP</t>
   </si>
   <si>
-    <t>LOADAC</t>
-  </si>
-  <si>
-    <t>STOREC</t>
-  </si>
-  <si>
     <t>AC &lt;- M[a]</t>
   </si>
   <si>
@@ -103,9 +97,6 @@
     <t>RESET</t>
   </si>
   <si>
-    <t>INC1</t>
-  </si>
-  <si>
     <t>u-ins</t>
   </si>
   <si>
@@ -127,42 +118,12 @@
     <t>FETCH_1</t>
   </si>
   <si>
-    <t>LOADAC_1</t>
-  </si>
-  <si>
-    <t>LOADAC_2</t>
-  </si>
-  <si>
-    <t>LOADAC_3</t>
-  </si>
-  <si>
-    <t>LOADAC_4</t>
-  </si>
-  <si>
     <t>DR &lt;- M</t>
   </si>
   <si>
-    <t>STOREC_1</t>
-  </si>
-  <si>
-    <t>STOREC_2</t>
-  </si>
-  <si>
-    <t>STOREC_3</t>
-  </si>
-  <si>
     <t>DR &lt;- M , PC &lt;- PC + 1</t>
   </si>
   <si>
-    <t>STOREC_4</t>
-  </si>
-  <si>
-    <t>STOREC_5</t>
-  </si>
-  <si>
-    <t>STOREC_6</t>
-  </si>
-  <si>
     <t>XOR_1</t>
   </si>
   <si>
@@ -175,21 +136,12 @@
     <t>JUMP_4</t>
   </si>
   <si>
-    <t>INC1_1</t>
-  </si>
-  <si>
     <t>CLEARAC</t>
   </si>
   <si>
     <t>no operation</t>
   </si>
   <si>
-    <t>LOADAC_5</t>
-  </si>
-  <si>
-    <t>LOADAC_6</t>
-  </si>
-  <si>
     <t>JUMPZY_1</t>
   </si>
   <si>
@@ -211,9 +163,6 @@
     <t>PC &lt;- PC + 1</t>
   </si>
   <si>
-    <t>STOREC_7</t>
-  </si>
-  <si>
     <t>MULV</t>
   </si>
   <si>
@@ -373,9 +322,6 @@
     <t>RESET_2</t>
   </si>
   <si>
-    <t>INC1_2</t>
-  </si>
-  <si>
     <t>AC &lt;- AC + R[R1]</t>
   </si>
   <si>
@@ -523,9 +469,6 @@
     <t>Accumilator for ALU operations</t>
   </si>
   <si>
-    <t>STA,STC,STC,A,B</t>
-  </si>
-  <si>
     <t>Stores stack pointers and offset addresses</t>
   </si>
   <si>
@@ -572,6 +515,63 @@
   </si>
   <si>
     <t>00001110 xxxxxxxx</t>
+  </si>
+  <si>
+    <t>LDAC</t>
+  </si>
+  <si>
+    <t>STAC</t>
+  </si>
+  <si>
+    <t>INC</t>
+  </si>
+  <si>
+    <t>LDAC_1</t>
+  </si>
+  <si>
+    <t>LDAC_2</t>
+  </si>
+  <si>
+    <t>LDAC_3</t>
+  </si>
+  <si>
+    <t>LDAC_4</t>
+  </si>
+  <si>
+    <t>LDAC_5</t>
+  </si>
+  <si>
+    <t>LDAC_6</t>
+  </si>
+  <si>
+    <t>STAC_1</t>
+  </si>
+  <si>
+    <t>STAC_2</t>
+  </si>
+  <si>
+    <t>STAC_3</t>
+  </si>
+  <si>
+    <t>STAC_4</t>
+  </si>
+  <si>
+    <t>STAC_5</t>
+  </si>
+  <si>
+    <t>STAC_6</t>
+  </si>
+  <si>
+    <t>STAC_7</t>
+  </si>
+  <si>
+    <t>INC_1</t>
+  </si>
+  <si>
+    <t>INC_2</t>
+  </si>
+  <si>
+    <t>STA,STB,STC,A,B</t>
   </si>
 </sst>
 </file>
@@ -1335,8 +1335,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86182E25-EC7A-483E-BB54-73CF54E3BA6D}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1350,13 +1350,13 @@
     <row r="1" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>1</v>
@@ -1368,7 +1368,7 @@
         <v>8</v>
       </c>
       <c r="C2" s="42" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>2</v>
@@ -1380,16 +1380,16 @@
     <row r="3" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="61"/>
       <c r="B3" s="37" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C3" s="43" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="D3" s="35" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="E3" s="36" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1397,76 +1397,76 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C4" s="44" t="s">
+        <v>147</v>
+      </c>
+      <c r="D4" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="44" t="s">
-        <v>166</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>11</v>
-      </c>
       <c r="E4" s="13" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="61"/>
       <c r="B5" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C5" s="44" t="s">
+        <v>148</v>
+      </c>
+      <c r="D5" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="44" t="s">
-        <v>167</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>12</v>
-      </c>
       <c r="E5" s="13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="61"/>
       <c r="B6" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C6" s="44" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:5" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="61"/>
       <c r="B7" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C7" s="44" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:5" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="61"/>
       <c r="B8" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C8" s="44" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:5" s="1" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1475,13 +1475,13 @@
         <v>5</v>
       </c>
       <c r="C9" s="44" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="69.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1489,16 +1489,16 @@
         <v>4</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C10" s="45" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1509,88 +1509,88 @@
         <v>7</v>
       </c>
       <c r="C11" s="45" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12" spans="1:5" s="1" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="63"/>
       <c r="B12" s="2" t="s">
-        <v>22</v>
+        <v>162</v>
       </c>
       <c r="C12" s="46" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="63"/>
       <c r="B13" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C13" s="46" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="63"/>
       <c r="B14" s="20" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C14" s="46" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="E14" s="39" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="63"/>
       <c r="B15" s="20" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="C15" s="46" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="E15" s="39" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="32.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="64"/>
       <c r="B16" s="30" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="C16" s="47" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="D16" s="41" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="E16" s="40" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -1609,7 +1609,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D43D6E7A-3E49-43BB-8E17-C3E4A8489588}">
   <dimension ref="A1:C74"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
@@ -1625,10 +1625,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -1639,7 +1639,7 @@
         <v>8</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:3" s="1" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -1647,33 +1647,33 @@
       <c r="B3" s="21"/>
       <c r="C3" s="22"/>
     </row>
-    <row r="4" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="25" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="20"/>
       <c r="B5" s="21" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="20"/>
       <c r="B6" s="21" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:3" s="1" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1683,58 +1683,58 @@
     </row>
     <row r="8" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="25" t="s">
-        <v>9</v>
+        <v>160</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>30</v>
+        <v>163</v>
       </c>
       <c r="C8" s="27" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="20"/>
       <c r="B9" s="21" t="s">
-        <v>31</v>
+        <v>164</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="20"/>
       <c r="B10" s="21" t="s">
-        <v>32</v>
+        <v>165</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="20"/>
       <c r="B11" s="21" t="s">
-        <v>33</v>
+        <v>166</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="20"/>
       <c r="B12" s="21" t="s">
-        <v>49</v>
+        <v>167</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="20"/>
       <c r="B13" s="21" t="s">
-        <v>50</v>
+        <v>168</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:3" s="1" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -1742,69 +1742,69 @@
       <c r="B14" s="21"/>
       <c r="C14" s="22"/>
     </row>
-    <row r="15" spans="1:3" ht="55.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="25" t="s">
-        <v>10</v>
+        <v>161</v>
       </c>
       <c r="B15" s="26" t="s">
-        <v>35</v>
+        <v>169</v>
       </c>
       <c r="C15" s="27" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="20"/>
       <c r="B16" s="21" t="s">
-        <v>36</v>
+        <v>170</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="20"/>
       <c r="B17" s="21" t="s">
-        <v>37</v>
+        <v>171</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="20"/>
       <c r="B18" s="21" t="s">
-        <v>39</v>
+        <v>172</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="20"/>
       <c r="B19" s="21" t="s">
-        <v>40</v>
+        <v>173</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="20"/>
       <c r="B20" s="21" t="s">
-        <v>41</v>
+        <v>174</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="20"/>
       <c r="B21" s="21" t="s">
-        <v>58</v>
+        <v>175</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22" spans="1:3" s="1" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -1814,13 +1814,13 @@
     </row>
     <row r="23" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="25" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="B23" s="26" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="C23" s="27" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:3" s="1" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -1833,37 +1833,37 @@
         <v>5</v>
       </c>
       <c r="B25" s="26" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="C25" s="27" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="20"/>
       <c r="B26" s="21" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C26" s="22" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
     </row>
     <row r="27" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="20"/>
       <c r="B27" s="21" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="C27" s="22" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="20"/>
       <c r="B28" s="21" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="C28" s="22" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
     </row>
     <row r="29" spans="1:3" s="1" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -1873,58 +1873,58 @@
     </row>
     <row r="30" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="25" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B30" s="26" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="C30" s="27" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="20"/>
       <c r="B31" s="21" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="C31" s="22" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
     </row>
     <row r="32" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="20"/>
       <c r="B32" s="21" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="C32" s="22" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="20"/>
       <c r="B33" s="21" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="C33" s="22" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
     </row>
     <row r="34" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="20"/>
       <c r="B34" s="21" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="C34" s="22" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
     </row>
     <row r="35" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="20"/>
       <c r="B35" s="21" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="C35" s="22" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
     </row>
     <row r="36" spans="1:3" s="1" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -1934,20 +1934,20 @@
     </row>
     <row r="37" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="25" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="B37" s="26" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="C37" s="27" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="38" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="20"/>
       <c r="B38" s="21"/>
       <c r="C38" s="22" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
     </row>
     <row r="39" spans="1:3" s="1" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -1957,49 +1957,49 @@
     </row>
     <row r="40" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="25" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="B40" s="26" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="C40" s="27" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="41" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="20"/>
       <c r="B41" s="21" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="C41" s="22" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
     </row>
     <row r="42" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="20"/>
       <c r="B42" s="21" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="C42" s="22" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="43" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="20"/>
       <c r="B43" s="21" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="C43" s="22" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
     </row>
     <row r="44" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="20"/>
       <c r="B44" s="21" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="C44" s="22" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
     </row>
     <row r="45" spans="1:3" s="1" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -2009,29 +2009,29 @@
     </row>
     <row r="46" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="25" t="s">
-        <v>22</v>
+        <v>162</v>
       </c>
       <c r="B46" s="26" t="s">
-        <v>46</v>
+        <v>176</v>
       </c>
       <c r="C46" s="27" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="47" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" s="20"/>
       <c r="B47" s="21" t="s">
-        <v>112</v>
+        <v>177</v>
       </c>
       <c r="C47" s="22" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
     </row>
     <row r="48" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="20"/>
       <c r="B48" s="21"/>
       <c r="C48" s="22" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
     </row>
     <row r="49" spans="1:3" s="1" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -2044,28 +2044,28 @@
         <v>7</v>
       </c>
       <c r="B50" s="26" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="C50" s="27" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
     </row>
     <row r="51" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A51" s="20"/>
       <c r="B51" s="21" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="C51" s="22" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
     </row>
     <row r="52" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" s="20"/>
       <c r="B52" s="21" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="C52" s="22" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
     </row>
     <row r="53" spans="1:3" s="1" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -2075,31 +2075,31 @@
     </row>
     <row r="54" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A54" s="25" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B54" s="26" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="C54" s="27" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
     </row>
     <row r="55" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A55" s="20"/>
       <c r="B55" s="23" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="C55" s="22" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
     </row>
     <row r="56" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A56" s="20"/>
       <c r="B56" s="23" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="C56" s="22" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
     </row>
     <row r="57" spans="1:3" s="1" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -2109,31 +2109,31 @@
     </row>
     <row r="58" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A58" s="25" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B58" s="26" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="C58" s="27" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
     </row>
     <row r="59" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A59" s="20"/>
       <c r="B59" s="23" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="C59" s="22" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
     </row>
     <row r="60" spans="1:3" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="20"/>
       <c r="B60" s="23" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="C60" s="22" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
     </row>
     <row r="61" spans="1:3" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2143,31 +2143,31 @@
     </row>
     <row r="62" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A62" s="25" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B62" s="33" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="C62" s="29" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A63" s="20"/>
       <c r="B63" s="34" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="C63" s="14" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A64" s="20"/>
       <c r="B64" s="34" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="C64" s="48" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
     </row>
     <row r="65" spans="1:3" s="1" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -2177,31 +2177,31 @@
     </row>
     <row r="66" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A66" s="25" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B66" s="33" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="C66" s="29" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A67" s="20"/>
       <c r="B67" s="34" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="C67" s="14" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A68" s="20"/>
       <c r="B68" s="34" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="C68" s="48" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
     </row>
     <row r="69" spans="1:3" s="1" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -2211,29 +2211,29 @@
     </row>
     <row r="70" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A70" s="25" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B70" s="26" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="C70" s="27" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="71" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A71" s="20"/>
       <c r="B71" s="21" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="C71" s="22" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
     </row>
     <row r="72" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A72" s="20"/>
       <c r="B72" s="21"/>
       <c r="C72" s="22" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -2256,8 +2256,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51276C7B-AB3B-47C6-8AF2-E7F8CBB216C3}">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2271,101 +2271,101 @@
     <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="50"/>
       <c r="B1" s="57" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="C1" s="58" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="D1" s="59" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="65" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="B2" s="51" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="C2" s="52">
         <v>16</v>
       </c>
       <c r="D2" s="51" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="65"/>
       <c r="B3" s="51" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="C3" s="52">
         <v>8</v>
       </c>
       <c r="D3" s="51" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="65"/>
       <c r="B4" s="51" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="C4" s="52">
         <v>16</v>
       </c>
       <c r="D4" s="51" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="65"/>
       <c r="B5" s="51" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="C5" s="52">
         <v>8</v>
       </c>
       <c r="D5" s="51" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="65"/>
       <c r="B6" s="51" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="C6" s="52">
         <v>8</v>
       </c>
       <c r="D6" s="51" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="65"/>
       <c r="B7" s="51" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c r="C7" s="52">
         <v>1</v>
       </c>
       <c r="D7" s="51" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="65" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
       <c r="B8" s="66" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="C8" s="67">
         <v>8</v>
       </c>
       <c r="D8" s="54" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -2373,7 +2373,7 @@
       <c r="B9" s="66"/>
       <c r="C9" s="67"/>
       <c r="D9" s="55" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -2381,7 +2381,7 @@
       <c r="B10" s="66"/>
       <c r="C10" s="67"/>
       <c r="D10" s="55" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -2389,67 +2389,67 @@
       <c r="B11" s="66"/>
       <c r="C11" s="67"/>
       <c r="D11" s="56" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="65"/>
       <c r="B12" s="53" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="C12" s="52">
         <v>8</v>
       </c>
       <c r="D12" s="51" t="s">
-        <v>155</v>
+        <v>137</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="65"/>
       <c r="B13" s="53" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="C13" s="52">
         <v>8</v>
       </c>
       <c r="D13" s="51" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="65"/>
       <c r="B14" s="53" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="C14" s="52">
         <v>8</v>
       </c>
       <c r="D14" s="51" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="65"/>
       <c r="B15" s="53" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="C15" s="52">
         <v>16</v>
       </c>
       <c r="D15" s="51" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="65"/>
       <c r="B16" s="51" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="C16" s="52">
         <v>16</v>
       </c>
       <c r="D16" s="51" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>

--- a/TRANSPOSED/ISA (version 2).xlsx
+++ b/TRANSPOSED/ISA (version 2).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sachi\Documents\GitHub\CCSS-Processor-Design\TRANSPOSED\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA77757C-2BD5-4B93-BC9E-D72BD2052AE0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12178D06-57F9-45B5-8E10-705390126C39}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1908" windowWidth="17280" windowHeight="10596" activeTab="2" xr2:uid="{F9FC4EB7-60E8-4B7B-A0E0-BCAB8887FB56}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{F9FC4EB7-60E8-4B7B-A0E0-BCAB8887FB56}"/>
   </bookViews>
   <sheets>
     <sheet name="ISA" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="180">
   <si>
     <t>OPCODE</t>
   </si>
@@ -572,6 +572,9 @@
   </si>
   <si>
     <t>STA,STB,STC,A,B</t>
+  </si>
+  <si>
+    <t>MULV_2</t>
   </si>
 </sst>
 </file>
@@ -1335,7 +1338,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86182E25-EC7A-483E-BB54-73CF54E3BA6D}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
@@ -1609,8 +1612,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D43D6E7A-3E49-43BB-8E17-C3E4A8489588}">
   <dimension ref="A1:C74"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1945,7 +1948,9 @@
     </row>
     <row r="38" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="20"/>
-      <c r="B38" s="21"/>
+      <c r="B38" s="21" t="s">
+        <v>179</v>
+      </c>
       <c r="C38" s="22" t="s">
         <v>64</v>
       </c>
@@ -2256,7 +2261,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51276C7B-AB3B-47C6-8AF2-E7F8CBB216C3}">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>

--- a/TRANSPOSED/ISA (version 2).xlsx
+++ b/TRANSPOSED/ISA (version 2).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sachi\Documents\GitHub\CCSS-Processor-Design\TRANSPOSED\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12178D06-57F9-45B5-8E10-705390126C39}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99FA2F71-80CE-47B8-B924-EE0BD356344C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{F9FC4EB7-60E8-4B7B-A0E0-BCAB8887FB56}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{F9FC4EB7-60E8-4B7B-A0E0-BCAB8887FB56}"/>
   </bookViews>
   <sheets>
     <sheet name="ISA" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="185">
   <si>
     <t>OPCODE</t>
   </si>
@@ -370,9 +370,6 @@
     <t>Add any given register R1 to AC.</t>
   </si>
   <si>
-    <t>Performs XOR on AC with any given register R1. If result is zero set Z flag to 1.</t>
-  </si>
-  <si>
     <t>Add any given constant value a to AC.</t>
   </si>
   <si>
@@ -457,12 +454,6 @@
     <t>Stores current position and current sum</t>
   </si>
   <si>
-    <t>AVAL</t>
-  </si>
-  <si>
-    <t>Stores the value at current position of 1st matrix</t>
-  </si>
-  <si>
     <t>AC</t>
   </si>
   <si>
@@ -575,6 +566,30 @@
   </si>
   <si>
     <t>MULV_2</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>General register. Stores the value at current position of 1st matrix</t>
+  </si>
+  <si>
+    <t>CoreID</t>
+  </si>
+  <si>
+    <t>Stores the Core ID.</t>
+  </si>
+  <si>
+    <t>DIV</t>
+  </si>
+  <si>
+    <t>AC &lt;- AC / R[R1] , if AC / R[R1] = 0 then Z &lt;- 1, else Z &lt;- 0</t>
+  </si>
+  <si>
+    <t>Divide AC by any given register R1. If result is zero set Z flag to 1 else 0.</t>
+  </si>
+  <si>
+    <t>Performs XOR on AC with any given register R1. If result is zero set Z flag to 1 else 0.</t>
   </si>
 </sst>
 </file>
@@ -1336,10 +1351,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86182E25-EC7A-483E-BB54-73CF54E3BA6D}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1347,7 +1362,7 @@
     <col min="2" max="2" width="17.44140625" customWidth="1"/>
     <col min="3" max="3" width="23.109375" customWidth="1"/>
     <col min="4" max="4" width="82.33203125" customWidth="1"/>
-    <col min="5" max="5" width="102" customWidth="1"/>
+    <col min="5" max="5" width="104.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -1371,7 +1386,7 @@
         <v>8</v>
       </c>
       <c r="C2" s="42" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>2</v>
@@ -1386,7 +1401,7 @@
         <v>19</v>
       </c>
       <c r="C3" s="43" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D3" s="35" t="s">
         <v>100</v>
@@ -1400,10 +1415,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C4" s="44" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D4" s="12" t="s">
         <v>9</v>
@@ -1415,10 +1430,10 @@
     <row r="5" spans="1:5" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="61"/>
       <c r="B5" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C5" s="44" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D5" s="12" t="s">
         <v>10</v>
@@ -1433,7 +1448,7 @@
         <v>16</v>
       </c>
       <c r="C6" s="44" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D6" s="12" t="s">
         <v>82</v>
@@ -1448,7 +1463,7 @@
         <v>15</v>
       </c>
       <c r="C7" s="44" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D7" s="12" t="s">
         <v>83</v>
@@ -1463,7 +1478,7 @@
         <v>17</v>
       </c>
       <c r="C8" s="44" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D8" s="12" t="s">
         <v>18</v>
@@ -1478,7 +1493,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="44" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D9" s="12" t="s">
         <v>89</v>
@@ -1495,7 +1510,7 @@
         <v>13</v>
       </c>
       <c r="C10" s="45" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>90</v>
@@ -1512,7 +1527,7 @@
         <v>7</v>
       </c>
       <c r="C11" s="45" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>95</v>
@@ -1524,10 +1539,10 @@
     <row r="12" spans="1:5" s="1" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="63"/>
       <c r="B12" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C12" s="46" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D12" s="10" t="s">
         <v>103</v>
@@ -1542,7 +1557,7 @@
         <v>14</v>
       </c>
       <c r="C13" s="46" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D13" s="10" t="s">
         <v>96</v>
@@ -1551,56 +1566,71 @@
         <v>101</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" s="50" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="63"/>
-      <c r="B14" s="20" t="s">
-        <v>12</v>
+      <c r="B14" s="2" t="s">
+        <v>181</v>
       </c>
       <c r="C14" s="46" t="s">
-        <v>157</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="E14" s="39" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>153</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="63"/>
       <c r="B15" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="46" t="s">
+        <v>154</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="E15" s="39" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="63"/>
+      <c r="B16" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="46" t="s">
-        <v>158</v>
-      </c>
-      <c r="D15" s="14" t="s">
+      <c r="C16" s="46" t="s">
+        <v>155</v>
+      </c>
+      <c r="D16" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="E15" s="39" t="s">
+      <c r="E16" s="39" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="32.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="64"/>
-      <c r="B16" s="30" t="s">
+    <row r="17" spans="1:5" ht="32.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="64"/>
+      <c r="B17" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="C16" s="47" t="s">
-        <v>159</v>
-      </c>
-      <c r="D16" s="41" t="s">
+      <c r="C17" s="47" t="s">
+        <v>156</v>
+      </c>
+      <c r="D17" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="E16" s="40" t="s">
-        <v>112</v>
+      <c r="E17" s="40" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A4:A8"/>
     <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A11:A16"/>
+    <mergeCell ref="A11:A17"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1612,7 +1642,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D43D6E7A-3E49-43BB-8E17-C3E4A8489588}">
   <dimension ref="A1:C74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
@@ -1686,10 +1716,10 @@
     </row>
     <row r="8" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="B8" s="26" t="s">
         <v>160</v>
-      </c>
-      <c r="B8" s="26" t="s">
-        <v>163</v>
       </c>
       <c r="C8" s="27" t="s">
         <v>28</v>
@@ -1698,7 +1728,7 @@
     <row r="9" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="20"/>
       <c r="B9" s="21" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C9" s="22" t="s">
         <v>69</v>
@@ -1707,7 +1737,7 @@
     <row r="10" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="20"/>
       <c r="B10" s="21" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C10" s="22" t="s">
         <v>28</v>
@@ -1716,7 +1746,7 @@
     <row r="11" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="20"/>
       <c r="B11" s="21" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C11" s="22" t="s">
         <v>70</v>
@@ -1725,7 +1755,7 @@
     <row r="12" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="20"/>
       <c r="B12" s="21" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C12" s="22" t="s">
         <v>27</v>
@@ -1734,7 +1764,7 @@
     <row r="13" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="20"/>
       <c r="B13" s="21" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C13" s="22" t="s">
         <v>63</v>
@@ -1747,10 +1777,10 @@
     </row>
     <row r="15" spans="1:3" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="25" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B15" s="26" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C15" s="27" t="s">
         <v>28</v>
@@ -1759,7 +1789,7 @@
     <row r="16" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="20"/>
       <c r="B16" s="21" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C16" s="22" t="s">
         <v>69</v>
@@ -1768,7 +1798,7 @@
     <row r="17" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="20"/>
       <c r="B17" s="21" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C17" s="22" t="s">
         <v>28</v>
@@ -1777,7 +1807,7 @@
     <row r="18" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="20"/>
       <c r="B18" s="21" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C18" s="22" t="s">
         <v>70</v>
@@ -1786,7 +1816,7 @@
     <row r="19" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="20"/>
       <c r="B19" s="21" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C19" s="22" t="s">
         <v>71</v>
@@ -1795,7 +1825,7 @@
     <row r="20" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="20"/>
       <c r="B20" s="21" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C20" s="22" t="s">
         <v>67</v>
@@ -1804,7 +1834,7 @@
     <row r="21" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="20"/>
       <c r="B21" s="21" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C21" s="22" t="s">
         <v>72</v>
@@ -1949,7 +1979,7 @@
     <row r="38" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="20"/>
       <c r="B38" s="21" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C38" s="22" t="s">
         <v>64</v>
@@ -1995,7 +2025,7 @@
         <v>48</v>
       </c>
       <c r="C43" s="22" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="44" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -2014,10 +2044,10 @@
     </row>
     <row r="46" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="25" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B46" s="26" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C46" s="27" t="s">
         <v>28</v>
@@ -2026,7 +2056,7 @@
     <row r="47" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" s="20"/>
       <c r="B47" s="21" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C47" s="22" t="s">
         <v>92</v>
@@ -2259,10 +2289,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51276C7B-AB3B-47C6-8AF2-E7F8CBB216C3}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2276,101 +2306,101 @@
     <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="50"/>
       <c r="B1" s="57" t="s">
+        <v>113</v>
+      </c>
+      <c r="C1" s="58" t="s">
         <v>114</v>
       </c>
-      <c r="C1" s="58" t="s">
+      <c r="D1" s="59" t="s">
         <v>115</v>
-      </c>
-      <c r="D1" s="59" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="65" t="s">
+        <v>116</v>
+      </c>
+      <c r="B2" s="51" t="s">
         <v>117</v>
-      </c>
-      <c r="B2" s="51" t="s">
-        <v>118</v>
       </c>
       <c r="C2" s="52">
         <v>16</v>
       </c>
       <c r="D2" s="51" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="65"/>
       <c r="B3" s="51" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C3" s="52">
         <v>8</v>
       </c>
       <c r="D3" s="51" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="65"/>
       <c r="B4" s="51" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C4" s="52">
         <v>16</v>
       </c>
       <c r="D4" s="51" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="65"/>
       <c r="B5" s="51" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C5" s="52">
         <v>8</v>
       </c>
       <c r="D5" s="51" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="65"/>
       <c r="B6" s="51" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C6" s="52">
         <v>8</v>
       </c>
       <c r="D6" s="51" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="65"/>
       <c r="B7" s="51" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C7" s="52">
         <v>1</v>
       </c>
       <c r="D7" s="51" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="65" t="s">
+        <v>129</v>
+      </c>
+      <c r="B8" s="66" t="s">
         <v>130</v>
-      </c>
-      <c r="B8" s="66" t="s">
-        <v>131</v>
       </c>
       <c r="C8" s="67">
         <v>8</v>
       </c>
       <c r="D8" s="54" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -2378,7 +2408,7 @@
       <c r="B9" s="66"/>
       <c r="C9" s="67"/>
       <c r="D9" s="55" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -2386,7 +2416,7 @@
       <c r="B10" s="66"/>
       <c r="C10" s="67"/>
       <c r="D10" s="55" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -2394,73 +2424,85 @@
       <c r="B11" s="66"/>
       <c r="C11" s="67"/>
       <c r="D11" s="56" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="65"/>
       <c r="B12" s="53" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C12" s="52">
         <v>8</v>
       </c>
       <c r="D12" s="51" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="65"/>
       <c r="B13" s="53" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C13" s="52">
         <v>8</v>
       </c>
       <c r="D13" s="51" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" s="50" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="65"/>
       <c r="B14" s="53" t="s">
-        <v>140</v>
+        <v>179</v>
       </c>
       <c r="C14" s="52">
         <v>8</v>
       </c>
       <c r="D14" s="51" t="s">
-        <v>141</v>
+        <v>180</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="65"/>
       <c r="B15" s="53" t="s">
+        <v>177</v>
+      </c>
+      <c r="C15" s="52">
+        <v>8</v>
+      </c>
+      <c r="D15" s="51" t="s">
         <v>178</v>
-      </c>
-      <c r="C15" s="52">
-        <v>16</v>
-      </c>
-      <c r="D15" s="51" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="65"/>
-      <c r="B16" s="51" t="s">
-        <v>142</v>
+      <c r="B16" s="53" t="s">
+        <v>175</v>
       </c>
       <c r="C16" s="52">
         <v>16</v>
       </c>
       <c r="D16" s="51" t="s">
-        <v>143</v>
+        <v>141</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="65"/>
+      <c r="B17" s="51" t="s">
+        <v>139</v>
+      </c>
+      <c r="C17" s="52">
+        <v>16</v>
+      </c>
+      <c r="D17" s="51" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A2:A7"/>
-    <mergeCell ref="A8:A16"/>
+    <mergeCell ref="A8:A17"/>
     <mergeCell ref="B8:B11"/>
     <mergeCell ref="C8:C11"/>
   </mergeCells>
